--- a/data/trans_bre/P31_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,6</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>15,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>-19,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>70,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>71,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 8,95</t>
+          <t>-29,7; 13,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 38,33</t>
+          <t>-5,22; 36,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 15,94</t>
+          <t>-27,65; 19,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 37,8</t>
+          <t>-5,9; 35,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 243,14</t>
+          <t>-59,22; 61,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 62,19</t>
+          <t>-19,04; 326,24</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-59,44; 106,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 327,36</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>-22,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>-7,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-2,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 10,19</t>
+          <t>-38,74; 13,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 21,55</t>
+          <t>-29,87; 18,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 19,39</t>
+          <t>-38,32; 21,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 43,91</t>
+          <t>-1,03; 40,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 89,5</t>
+          <t>-69,15; 59,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 73,68</t>
+          <t>-52,29; 72,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-65,1; 120,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 472,79</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,14</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,23%</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>-9,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>39,61%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-11,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 3,34</t>
+          <t>-20,89; 10,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 26,54</t>
+          <t>-1,12; 30,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 8,61</t>
+          <t>-23,54; 10,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 8,85</t>
+          <t>-10,15; 21,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 114,67</t>
+          <t>-37,38; 31,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 23,75</t>
+          <t>-1,98; 115,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-39,3; 27,92</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-20,53; 74,76</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>15,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>46,67%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66,51%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 17,33</t>
+          <t>-5,16; 18,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 15,2</t>
+          <t>-1,0; 26,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 8,02</t>
+          <t>-13,59; 14,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 123,96</t>
+          <t>1,74; 29,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 57,6</t>
+          <t>-19,81; 133,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 26,43</t>
+          <t>-2,84; 146,34</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-31,85; 54,51</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 184,29</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,42</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46,67%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 15,45</t>
+          <t>-15,41; 18,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 13,76</t>
+          <t>-13,25; 21,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 30,52</t>
+          <t>-4,28; 31,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 90,81</t>
+          <t>-6,5; 27,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 54,15</t>
+          <t>-49,04; 103,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,37; 163,36</t>
+          <t>-34,42; 100,05</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,58; 157,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; 157,88</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1120,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,92</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,01</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>26,59</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1029,7 +1145,17 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>78,83%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32,65%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>139,54%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 34,8</t>
+          <t>-0,85; 40,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 30,7</t>
+          <t>-2,95; 37,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 26,41</t>
+          <t>-12,79; 30,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,67; 222,84</t>
+          <t>6,38; 49,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 181,34</t>
+          <t>-3,66; 237,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 160,73</t>
+          <t>-10,65; 382,52</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-38,89; 211,6</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 490,21</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,04</t>
+          <t>-6,13; 9,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,23</t>
+          <t>2,6; 17,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,63</t>
+          <t>-7,43; 10,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 26,02</t>
+          <t>7,82; 24,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,82; 59,83</t>
+          <t>-16,85; 36,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 26,93</t>
+          <t>5,83; 67,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 35,39</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29,07; 116,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P31_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,44</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>16,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,87</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-19,58%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>70,27%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-4,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>71,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.155212205544243</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.16562597536767</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.440588226660983</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.75614417703704</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1954591382664946</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7286175913918082</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.04775951789630997</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7144967345722488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,7; 13,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 36,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-27,65; 19,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 35,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-59,22; 61,75</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 326,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-59,44; 106,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,01; 327,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-29.29036261911119</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.837338283239475</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-24.11525244311039</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.446274044818654</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6054849720097074</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1653358135081955</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5459927028491685</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.202984563122067</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.75976538894332</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>37.15597671876008</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.50982717413946</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>36.25683481247486</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6365653047043235</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.161628843992148</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.357609975760565</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.479370580630225</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,25</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,15</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-22,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-2,83%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>93,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-38,74; 13,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-29,87; 18,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-38,32; 21,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 40,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-69,15; 59,75</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-52,29; 72,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-65,1; 120,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 472,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.108415663485321</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.042769035329618</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3141221729297261</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>16.73378960095308</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1311202620688884</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.07421446508976508</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.009156816726469558</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9500077376129342</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,13</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>39,61%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-11,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-33.7660679095231</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-28.04035937566913</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-35.66834383129486</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.380952951523402</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6552884937601802</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5219072509614585</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6396922876044498</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.05487668314772288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,89; 10,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 30,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,54; 10,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 21,59</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-37,38; 31,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 115,13</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-39,3; 27,92</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; 74,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.58094880709951</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.01724256886396</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.49400440769933</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>39.76411493467755</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.781953530200904</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.66946162155877</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.190032247549989</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.135897173761589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,91</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>36,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>46,67%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>66,51%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.78932691370483</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>14.20668538656071</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.582072370035261</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.256916944643812</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1642795297031683</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.372981944090708</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.07671775451872659</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1014203650804183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 18,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 26,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; 14,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 29,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-19,81; 133,85</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 146,34</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-31,85; 54,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 184,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.81459036685212</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.905944473279511</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.92875163805807</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.43707605024309</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4328958755620451</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.03721366708644881</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3673061485904049</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2288441266618561</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.162338464834502</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>30.279360407501</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.27017777468653</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.8058944777012</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.216026673916252</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.117852636938088</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3427774557563384</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7281571028646986</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,43</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,67</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,57</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>14,57%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>46,67%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>43,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,41; 18,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,25; 21,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 31,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; 27,25</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-49,04; 103,47</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-34,42; 100,05</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 157,14</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-21,43; 157,88</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>8.125830047423023</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.24487223040014</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7947862060191713</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>16.01444815084769</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.404348508161073</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3611147498002759</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.02206938291852375</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6705046236749257</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,78</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>16,23</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,45</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>26,59</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>69,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>78,83%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>32,65%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>139,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.716889411171072</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.98577442135603</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-14.20563462327955</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.729643164878058</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1944494963644156</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1037377835637634</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3128908879992982</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.04521926205056818</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 40,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 37,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,79; 30,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 49,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 237,73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 382,52</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-38,89; 211,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 490,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.01673530722049</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>24.5274903972653</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.1427244339156</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>30.21374127454521</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.4701700739252</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.310291184311419</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5856655059432346</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.835628227516342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>16,09</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>35,07%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>65,1%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.58858235767525</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.078919615963612</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>14.64537866459285</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>11.09741484825278</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.06197426108336363</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1635609046173903</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.5556066598069158</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.4440249078553466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 9,93</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 17,71</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 10,3</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 24,15</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 36,66</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 67,0</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-18,28; 35,39</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>29,07; 116,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-16.89261770150366</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.34128793247956</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.691487621995174</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-5.739494612919269</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.5381173950926973</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3346570614108051</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.07690952402539512</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.1818608288007721</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.18582017138606</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>23.11956541883608</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>33.17652685015521</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>28.4854358378082</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.8575732935240187</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.034282145403889</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.741795754159008</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.592973729236097</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>22.00999147024326</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>17.87440390177432</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>12.78088036049325</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>26.11602907280857</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.8348625835194448</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.8635280087169795</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.5008077857818197</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.365660643288254</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1.43839457082165</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.286050564220187</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-9.024549128788836</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>5.005191665408391</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.05067137602335958</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.09945610823637455</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.284591091398724</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0.07178578434577766</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>43.28966860085594</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>40.58315316083902</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>36.67196039460051</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>48.52037925574849</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.795480132598132</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>3.875807243506856</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>2.753762020374035</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>4.762843260560338</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.128956316093928</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>10.51109149957691</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3.752808028979004</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>15.85638639207716</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.06863468475355179</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.3344431032199669</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.1102576855774338</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.6354326637662773</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.830238436764863</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.060626594851764</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.33632594895834</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>7.853284685308029</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1677652495861763</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.0514681333247667</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1396949405913327</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.2625549760568134</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.36691133682002</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>17.19360290715323</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>12.01105332583835</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>23.90245754435066</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.3856228369464</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.6175877652448292</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.419687069690771</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.12245006636396</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
